--- a/dbHelpers/substations_info.xlsx
+++ b/dbHelpers/substations_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF782342-4797-4F2A-811B-BEB468C346C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CC8FC8-18E6-4000-8220-DAAA8D75D6DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>num_lines</t>
   </si>
   <si>
-    <t>Solapur</t>
+    <t>Sholapur</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/dbHelpers/substations_info.xlsx
+++ b/dbHelpers/substations_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8480F182-3E68-4E27-ACE3-3CBA0BEE2E67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DCE8C0-2B70-4195-BF80-863B450D2E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:G328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
